--- a/data/processed/implan-import.xlsx
+++ b/data/processed/implan-import.xlsx
@@ -7,24 +7,24 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="bikeComm" sheetId="20" state="visible" r:id="rId2"/>
-    <sheet name="bikeInd" sheetId="21" state="visible" r:id="rId3"/>
-    <sheet name="campComm" sheetId="22" state="visible" r:id="rId4"/>
-    <sheet name="campInd" sheetId="23" state="visible" r:id="rId5"/>
-    <sheet name="fishComm" sheetId="24" state="visible" r:id="rId6"/>
-    <sheet name="fishInd" sheetId="25" state="visible" r:id="rId7"/>
-    <sheet name="huntComm" sheetId="26" state="visible" r:id="rId8"/>
-    <sheet name="huntInd" sheetId="27" state="visible" r:id="rId9"/>
-    <sheet name="picnicComm" sheetId="28" state="visible" r:id="rId10"/>
-    <sheet name="picnicInd" sheetId="29" state="visible" r:id="rId11"/>
-    <sheet name="snowComm" sheetId="30" state="visible" r:id="rId12"/>
-    <sheet name="snowInd" sheetId="31" state="visible" r:id="rId13"/>
-    <sheet name="trailComm" sheetId="32" state="visible" r:id="rId14"/>
-    <sheet name="trailInd" sheetId="33" state="visible" r:id="rId15"/>
-    <sheet name="waterComm" sheetId="34" state="visible" r:id="rId16"/>
-    <sheet name="waterInd" sheetId="35" state="visible" r:id="rId17"/>
-    <sheet name="wildlifeComm" sheetId="36" state="visible" r:id="rId18"/>
-    <sheet name="wildlifeInd" sheetId="37" state="visible" r:id="rId19"/>
+    <sheet name="bikeComm" sheetId="38" state="visible" r:id="rId2"/>
+    <sheet name="bikeInd" sheetId="39" state="visible" r:id="rId3"/>
+    <sheet name="campComm" sheetId="40" state="visible" r:id="rId4"/>
+    <sheet name="campInd" sheetId="41" state="visible" r:id="rId5"/>
+    <sheet name="fishComm" sheetId="42" state="visible" r:id="rId6"/>
+    <sheet name="fishInd" sheetId="43" state="visible" r:id="rId7"/>
+    <sheet name="huntComm" sheetId="44" state="visible" r:id="rId8"/>
+    <sheet name="huntInd" sheetId="45" state="visible" r:id="rId9"/>
+    <sheet name="picnicComm" sheetId="46" state="visible" r:id="rId10"/>
+    <sheet name="picnicInd" sheetId="47" state="visible" r:id="rId11"/>
+    <sheet name="snowComm" sheetId="48" state="visible" r:id="rId12"/>
+    <sheet name="snowInd" sheetId="49" state="visible" r:id="rId13"/>
+    <sheet name="trailComm" sheetId="50" state="visible" r:id="rId14"/>
+    <sheet name="trailInd" sheetId="51" state="visible" r:id="rId15"/>
+    <sheet name="waterComm" sheetId="52" state="visible" r:id="rId16"/>
+    <sheet name="waterInd" sheetId="53" state="visible" r:id="rId17"/>
+    <sheet name="wildlifeComm" sheetId="54" state="visible" r:id="rId18"/>
+    <sheet name="wildlifeInd" sheetId="55" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/data/processed/implan-import.xlsx
+++ b/data/processed/implan-import.xlsx
@@ -7,24 +7,24 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="bikeComm" sheetId="38" state="visible" r:id="rId2"/>
-    <sheet name="bikeInd" sheetId="39" state="visible" r:id="rId3"/>
-    <sheet name="campComm" sheetId="40" state="visible" r:id="rId4"/>
-    <sheet name="campInd" sheetId="41" state="visible" r:id="rId5"/>
-    <sheet name="fishComm" sheetId="42" state="visible" r:id="rId6"/>
-    <sheet name="fishInd" sheetId="43" state="visible" r:id="rId7"/>
-    <sheet name="huntComm" sheetId="44" state="visible" r:id="rId8"/>
-    <sheet name="huntInd" sheetId="45" state="visible" r:id="rId9"/>
-    <sheet name="picnicComm" sheetId="46" state="visible" r:id="rId10"/>
-    <sheet name="picnicInd" sheetId="47" state="visible" r:id="rId11"/>
-    <sheet name="snowComm" sheetId="48" state="visible" r:id="rId12"/>
-    <sheet name="snowInd" sheetId="49" state="visible" r:id="rId13"/>
-    <sheet name="trailComm" sheetId="50" state="visible" r:id="rId14"/>
-    <sheet name="trailInd" sheetId="51" state="visible" r:id="rId15"/>
-    <sheet name="waterComm" sheetId="52" state="visible" r:id="rId16"/>
-    <sheet name="waterInd" sheetId="53" state="visible" r:id="rId17"/>
-    <sheet name="wildlifeComm" sheetId="54" state="visible" r:id="rId18"/>
-    <sheet name="wildlifeInd" sheetId="55" state="visible" r:id="rId19"/>
+    <sheet name="bikeComm" sheetId="56" state="visible" r:id="rId2"/>
+    <sheet name="bikeInd" sheetId="57" state="visible" r:id="rId3"/>
+    <sheet name="campComm" sheetId="58" state="visible" r:id="rId4"/>
+    <sheet name="campInd" sheetId="59" state="visible" r:id="rId5"/>
+    <sheet name="fishComm" sheetId="60" state="visible" r:id="rId6"/>
+    <sheet name="fishInd" sheetId="61" state="visible" r:id="rId7"/>
+    <sheet name="huntComm" sheetId="62" state="visible" r:id="rId8"/>
+    <sheet name="huntInd" sheetId="63" state="visible" r:id="rId9"/>
+    <sheet name="picnicComm" sheetId="64" state="visible" r:id="rId10"/>
+    <sheet name="picnicInd" sheetId="65" state="visible" r:id="rId11"/>
+    <sheet name="snowComm" sheetId="66" state="visible" r:id="rId12"/>
+    <sheet name="snowInd" sheetId="67" state="visible" r:id="rId13"/>
+    <sheet name="trailComm" sheetId="68" state="visible" r:id="rId14"/>
+    <sheet name="trailInd" sheetId="69" state="visible" r:id="rId15"/>
+    <sheet name="waterComm" sheetId="70" state="visible" r:id="rId16"/>
+    <sheet name="waterInd" sheetId="71" state="visible" r:id="rId17"/>
+    <sheet name="wildlifeComm" sheetId="72" state="visible" r:id="rId18"/>
+    <sheet name="wildlifeInd" sheetId="73" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/data/processed/implan-import.xlsx
+++ b/data/processed/implan-import.xlsx
@@ -7,24 +7,24 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="bikeComm" sheetId="56" state="visible" r:id="rId2"/>
-    <sheet name="bikeInd" sheetId="57" state="visible" r:id="rId3"/>
-    <sheet name="campComm" sheetId="58" state="visible" r:id="rId4"/>
-    <sheet name="campInd" sheetId="59" state="visible" r:id="rId5"/>
-    <sheet name="fishComm" sheetId="60" state="visible" r:id="rId6"/>
-    <sheet name="fishInd" sheetId="61" state="visible" r:id="rId7"/>
-    <sheet name="huntComm" sheetId="62" state="visible" r:id="rId8"/>
-    <sheet name="huntInd" sheetId="63" state="visible" r:id="rId9"/>
-    <sheet name="picnicComm" sheetId="64" state="visible" r:id="rId10"/>
-    <sheet name="picnicInd" sheetId="65" state="visible" r:id="rId11"/>
-    <sheet name="snowComm" sheetId="66" state="visible" r:id="rId12"/>
-    <sheet name="snowInd" sheetId="67" state="visible" r:id="rId13"/>
-    <sheet name="trailComm" sheetId="68" state="visible" r:id="rId14"/>
-    <sheet name="trailInd" sheetId="69" state="visible" r:id="rId15"/>
-    <sheet name="waterComm" sheetId="70" state="visible" r:id="rId16"/>
-    <sheet name="waterInd" sheetId="71" state="visible" r:id="rId17"/>
-    <sheet name="wildlifeComm" sheetId="72" state="visible" r:id="rId18"/>
-    <sheet name="wildlifeInd" sheetId="73" state="visible" r:id="rId19"/>
+    <sheet name="bikeComm" sheetId="74" state="visible" r:id="rId2"/>
+    <sheet name="bikeInd" sheetId="75" state="visible" r:id="rId3"/>
+    <sheet name="campComm" sheetId="76" state="visible" r:id="rId4"/>
+    <sheet name="campInd" sheetId="77" state="visible" r:id="rId5"/>
+    <sheet name="fishComm" sheetId="78" state="visible" r:id="rId6"/>
+    <sheet name="fishInd" sheetId="79" state="visible" r:id="rId7"/>
+    <sheet name="huntComm" sheetId="80" state="visible" r:id="rId8"/>
+    <sheet name="huntInd" sheetId="81" state="visible" r:id="rId9"/>
+    <sheet name="picnicComm" sheetId="82" state="visible" r:id="rId10"/>
+    <sheet name="picnicInd" sheetId="83" state="visible" r:id="rId11"/>
+    <sheet name="snowComm" sheetId="84" state="visible" r:id="rId12"/>
+    <sheet name="snowInd" sheetId="85" state="visible" r:id="rId13"/>
+    <sheet name="trailComm" sheetId="86" state="visible" r:id="rId14"/>
+    <sheet name="trailInd" sheetId="87" state="visible" r:id="rId15"/>
+    <sheet name="waterComm" sheetId="88" state="visible" r:id="rId16"/>
+    <sheet name="waterInd" sheetId="89" state="visible" r:id="rId17"/>
+    <sheet name="wildlifeComm" sheetId="90" state="visible" r:id="rId18"/>
+    <sheet name="wildlifeInd" sheetId="91" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/data/processed/implan-import.xlsx
+++ b/data/processed/implan-import.xlsx
@@ -7,24 +7,24 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="bikeComm" sheetId="74" state="visible" r:id="rId2"/>
-    <sheet name="bikeInd" sheetId="75" state="visible" r:id="rId3"/>
-    <sheet name="campComm" sheetId="76" state="visible" r:id="rId4"/>
-    <sheet name="campInd" sheetId="77" state="visible" r:id="rId5"/>
-    <sheet name="fishComm" sheetId="78" state="visible" r:id="rId6"/>
-    <sheet name="fishInd" sheetId="79" state="visible" r:id="rId7"/>
-    <sheet name="huntComm" sheetId="80" state="visible" r:id="rId8"/>
-    <sheet name="huntInd" sheetId="81" state="visible" r:id="rId9"/>
-    <sheet name="picnicComm" sheetId="82" state="visible" r:id="rId10"/>
-    <sheet name="picnicInd" sheetId="83" state="visible" r:id="rId11"/>
-    <sheet name="snowComm" sheetId="84" state="visible" r:id="rId12"/>
-    <sheet name="snowInd" sheetId="85" state="visible" r:id="rId13"/>
-    <sheet name="trailComm" sheetId="86" state="visible" r:id="rId14"/>
-    <sheet name="trailInd" sheetId="87" state="visible" r:id="rId15"/>
-    <sheet name="waterComm" sheetId="88" state="visible" r:id="rId16"/>
-    <sheet name="waterInd" sheetId="89" state="visible" r:id="rId17"/>
-    <sheet name="wildlifeComm" sheetId="90" state="visible" r:id="rId18"/>
-    <sheet name="wildlifeInd" sheetId="91" state="visible" r:id="rId19"/>
+    <sheet name="bikeComm" sheetId="92" state="visible" r:id="rId2"/>
+    <sheet name="bikeInd" sheetId="93" state="visible" r:id="rId3"/>
+    <sheet name="campComm" sheetId="94" state="visible" r:id="rId4"/>
+    <sheet name="campInd" sheetId="95" state="visible" r:id="rId5"/>
+    <sheet name="fishComm" sheetId="96" state="visible" r:id="rId6"/>
+    <sheet name="fishInd" sheetId="97" state="visible" r:id="rId7"/>
+    <sheet name="huntComm" sheetId="98" state="visible" r:id="rId8"/>
+    <sheet name="huntInd" sheetId="99" state="visible" r:id="rId9"/>
+    <sheet name="picnicComm" sheetId="100" state="visible" r:id="rId10"/>
+    <sheet name="picnicInd" sheetId="101" state="visible" r:id="rId11"/>
+    <sheet name="snowComm" sheetId="102" state="visible" r:id="rId12"/>
+    <sheet name="snowInd" sheetId="103" state="visible" r:id="rId13"/>
+    <sheet name="trailComm" sheetId="104" state="visible" r:id="rId14"/>
+    <sheet name="trailInd" sheetId="105" state="visible" r:id="rId15"/>
+    <sheet name="waterComm" sheetId="106" state="visible" r:id="rId16"/>
+    <sheet name="waterInd" sheetId="107" state="visible" r:id="rId17"/>
+    <sheet name="wildlifeComm" sheetId="108" state="visible" r:id="rId18"/>
+    <sheet name="wildlifeInd" sheetId="109" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/data/processed/implan-import.xlsx
+++ b/data/processed/implan-import.xlsx
@@ -7,24 +7,24 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="bikeComm" sheetId="92" state="visible" r:id="rId2"/>
-    <sheet name="bikeInd" sheetId="93" state="visible" r:id="rId3"/>
-    <sheet name="campComm" sheetId="94" state="visible" r:id="rId4"/>
-    <sheet name="campInd" sheetId="95" state="visible" r:id="rId5"/>
-    <sheet name="fishComm" sheetId="96" state="visible" r:id="rId6"/>
-    <sheet name="fishInd" sheetId="97" state="visible" r:id="rId7"/>
-    <sheet name="huntComm" sheetId="98" state="visible" r:id="rId8"/>
-    <sheet name="huntInd" sheetId="99" state="visible" r:id="rId9"/>
-    <sheet name="picnicComm" sheetId="100" state="visible" r:id="rId10"/>
-    <sheet name="picnicInd" sheetId="101" state="visible" r:id="rId11"/>
-    <sheet name="snowComm" sheetId="102" state="visible" r:id="rId12"/>
-    <sheet name="snowInd" sheetId="103" state="visible" r:id="rId13"/>
-    <sheet name="trailComm" sheetId="104" state="visible" r:id="rId14"/>
-    <sheet name="trailInd" sheetId="105" state="visible" r:id="rId15"/>
-    <sheet name="waterComm" sheetId="106" state="visible" r:id="rId16"/>
-    <sheet name="waterInd" sheetId="107" state="visible" r:id="rId17"/>
-    <sheet name="wildlifeComm" sheetId="108" state="visible" r:id="rId18"/>
-    <sheet name="wildlifeInd" sheetId="109" state="visible" r:id="rId19"/>
+    <sheet name="bikeComm" sheetId="110" state="visible" r:id="rId2"/>
+    <sheet name="bikeInd" sheetId="111" state="visible" r:id="rId3"/>
+    <sheet name="campComm" sheetId="112" state="visible" r:id="rId4"/>
+    <sheet name="campInd" sheetId="113" state="visible" r:id="rId5"/>
+    <sheet name="fishComm" sheetId="114" state="visible" r:id="rId6"/>
+    <sheet name="fishInd" sheetId="115" state="visible" r:id="rId7"/>
+    <sheet name="huntComm" sheetId="116" state="visible" r:id="rId8"/>
+    <sheet name="huntInd" sheetId="117" state="visible" r:id="rId9"/>
+    <sheet name="picnicComm" sheetId="118" state="visible" r:id="rId10"/>
+    <sheet name="picnicInd" sheetId="119" state="visible" r:id="rId11"/>
+    <sheet name="snowComm" sheetId="120" state="visible" r:id="rId12"/>
+    <sheet name="snowInd" sheetId="121" state="visible" r:id="rId13"/>
+    <sheet name="trailComm" sheetId="122" state="visible" r:id="rId14"/>
+    <sheet name="trailInd" sheetId="123" state="visible" r:id="rId15"/>
+    <sheet name="waterComm" sheetId="124" state="visible" r:id="rId16"/>
+    <sheet name="waterInd" sheetId="125" state="visible" r:id="rId17"/>
+    <sheet name="wildlifeComm" sheetId="126" state="visible" r:id="rId18"/>
+    <sheet name="wildlifeInd" sheetId="127" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
